--- a/src/test/resources/testdata/createuser.xlsx
+++ b/src/test/resources/testdata/createuser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowthamraj sekar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93861F90-FC10-48B4-88AF-16C69F38878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFDB4DF-7B2C-4646-A91D-1F43C23B116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8ED788B-DF59-4DDE-A740-AD148FD7517B}"/>
   </bookViews>
@@ -53,19 +53,19 @@
     <t>female</t>
   </si>
   <si>
-    <t xml:space="preserve"> inactive</t>
-  </si>
-  <si>
     <t>Grey Worm</t>
   </si>
   <si>
-    <t xml:space="preserve">male </t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>Tyrion</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>inactive</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,29 +476,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
